--- a/biology/Botanique/Setaria_verticillata/Setaria_verticillata.xlsx
+++ b/biology/Botanique/Setaria_verticillata/Setaria_verticillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setaria verticillata, la sétaire verticillée, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire de l'Ancien Monde.
 C'est une plante herbacée annuelle à physiologie en C4, à port étalé, qui peut atteindre un mètre de haut.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sétaire verticillée est une plante herbacée annuelle  pouvant atteindre environ un mètre de haut.
 La plante forme des touffes lâches, étalées, dont les tiges (chaumes) géniculées s'enracinent souvent au niveau des nœuds inférieurs. 
@@ -524,7 +538,7 @@
 Cette panicule est souvent un peu lobée, laissant apparaître le rachis par endroits.
 Les épillets sont groupés sur de courtes ramifications réparties autour du rachis.
 Chaque épillet, long de 2 à 2,5 mm, est sous-tendu par 1 à 3 poils de 2 à 8 mm de long. Ces poils munis d'aspérités rabattues vers le bas (rétrorses) permettent aux épillets de s'accrocher à la fourrure des animaux ou aux vêtements et souvent à d'autres inflorescences.
-La glume inférieure est deux fois plus courte que l'épillet, tandis que la glume supérieure, aussi longue que l'épillet, cache la lemme supérieure finement ridée[2]. 
+La glume inférieure est deux fois plus courte que l'épillet, tandis que la glume supérieure, aussi longue que l'épillet, cache la lemme supérieure finement ridée. 
 Le fruit est un caryopse, long de 1,2 à 1,5 mm, de couleur brun clair et de forme ovoïde, légèrement comprimé dorso-ventralement.
 </t>
         </is>
@@ -554,10 +568,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Setaria verticillata se situe vraisemblablement dans l'Ancien Monde et comprendrait l'Afrique du Nord (Algérie, Égypte, Libye, Maroc, Tunisie), l'Asie tempérée (péninsule arabique, Caucase, Chine, Asie centrale , Proche et Moyen-Orient : Chypre, Iran, Irak, Israël, Liban, Turquie) et l'Europe orientale, centrale et méridionale.
-L'espèce s'est naturalisée dans de nombreuses autres régions : Extrême-orient (Japon), Australasie (Australie, Nouvelle-Zélande), Scandinavie (Danemark, Finlande, Norvège), Amérique du Nord (Canada, États-Unis, Mexique), Océanie (Hawaï), Amérique du Sud (Brésil, Chili, Pérou)[3].
+L'espèce s'est naturalisée dans de nombreuses autres régions : Extrême-orient (Japon), Australasie (Australie, Nouvelle-Zélande), Scandinavie (Danemark, Finlande, Norvège), Amérique du Nord (Canada, États-Unis, Mexique), Océanie (Hawaï), Amérique du Sud (Brésil, Chili, Pérou).
 </t>
         </is>
       </c>
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (5 jui 2016)[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 jui 2016) :
 Chaetochloa ambigua (Guss.) Scribn. &amp; Merr.,
 Chaetochloa brevispica Scribn. &amp; Merr.,
 Chaetochloa verticillata (L.) Scribn.,
@@ -683,13 +704,82 @@
 Setaria viridis subsp. ambigua (Guss.) K.Richt.,
 Setaria viridis var. insularis A.Terracc.,
 Setariopsis verticillata (L.) Samp.
-Liste des variétés
-Selon The Plant List            (5 juin 2016)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Setaria_verticillata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Setaria_verticillata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (5 juin 2016) :
 variété Setaria verticillata var. ambigua (Guss.) Parl.
 variété Setaria verticillata var. colorata (A. Braun ex Asch. &amp; Graebn.) Podp.
-variété Setaria verticillata var. robusta (A. Braun) Hegi
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (5 juin 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+variété Setaria verticillata var. robusta (A. Braun) Hegi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Setaria_verticillata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Setaria_verticillata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (5 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Setaria verticillata subsp. ambigua (Guss.) K. Richt.
 sous-espèce Setaria verticillata subsp. aparine (Steud.) T. Durand &amp; Schinz
 sous-espèce Setaria verticillata subsp. euverticillata Briq.
